--- a/PRODUCT BACKLOG - GESTAOHOTEL.xlsx
+++ b/PRODUCT BACKLOG - GESTAOHOTEL.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>VALOR DE NEGÓCIOS (PRIORIDADE)</t>
   </si>
@@ -99,28 +99,40 @@
     <t>Cadastro de login e senha para acesso dos funcionários</t>
   </si>
   <si>
-    <t>Cadastro da reserva solicitada pelo cliente por telefone ou e-mail</t>
-  </si>
-  <si>
-    <t>Cadastro das características das suítes</t>
-  </si>
-  <si>
-    <t>Cadastro dos dados pessoais dos hóspedes</t>
-  </si>
-  <si>
     <t>Cadastro dos dados do hotel (endereço, telefone, etc)</t>
   </si>
   <si>
-    <t>Cadastro dos produtos oferecidos aos clientes no frigobar</t>
-  </si>
-  <si>
     <t>Cadastro de serviços oferecidos pelo hotel, tais como lavanderia, refeições, etc.</t>
   </si>
   <si>
     <t>Consultar a reserva do hóspede, realizar seu registro e indicar a suíte disponível</t>
   </si>
   <si>
-    <t>Verificar as despesas do hóspede (diárias, produtos e serviços)</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Cadastro dos produtos oferecidos aos clientes no frigobar e tela de controle de estoque</t>
+  </si>
+  <si>
+    <t>Cadastro da reserva solicitada pelo cliente por telefone ou e-mail e tela de consulta de reservas</t>
+  </si>
+  <si>
+    <t>Cadastro das características das suítes e quadro de consulta de suítes</t>
+  </si>
+  <si>
+    <t>Cadastro dos dados pessoais dos hóspedese tela de consulta hóspedes</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Verificar as despesas do hóspede (diárias, produtos e serviços) e gerar o extrato da conta</t>
+  </si>
+  <si>
+    <t>Cadastro de Funcionários</t>
+  </si>
+  <si>
+    <t>Cadastro dos funcionários de hotel e consulta de funcionários.</t>
   </si>
 </sst>
 </file>
@@ -167,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -190,22 +202,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,196 +548,219 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2">
         <v>3</v>
       </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="4">
-        <v>3</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4">
-        <v>3</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="4">
-        <v>3</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="4">
-        <v>3</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="4">
-        <v>3</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="4">
-        <v>3</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="4">
-        <v>8</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="4">
-        <v>8</v>
-      </c>
-      <c r="F11" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/PRODUCT BACKLOG - GESTAOHOTEL.xlsx
+++ b/PRODUCT BACKLOG - GESTAOHOTEL.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>VALOR DE NEGÓCIOS (PRIORIDADE)</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>Consultar a reserva do hóspede, realizar seu registro e indicar a suíte disponível</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Cadastro dos produtos oferecidos aos clientes no frigobar e tela de controle de estoque</t>
@@ -179,7 +176,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -202,22 +199,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -229,7 +215,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2"/>
     </row>
@@ -600,16 +585,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2">
         <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -618,13 +603,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2">
         <v>3</v>
@@ -642,7 +627,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="2">
         <v>3</v>
@@ -660,7 +645,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="2">
         <v>3</v>
@@ -678,7 +663,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2">
         <v>3</v>
@@ -696,7 +681,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2">
         <v>3</v>
@@ -726,16 +711,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2"/>
     </row>
@@ -744,23 +729,18 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E12" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="5" t="s">
-        <v>22</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
